--- a/夏令营、预推免时间/夏令营.xlsx
+++ b/夏令营、预推免时间/夏令营.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redmi\Desktop\保研\夏令营、预推免时间\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8C8933-09DF-4047-A5AC-A2B42DCE1BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,584 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学校</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专业</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网址</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>截止日期</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参营时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否要套磁信</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否明确卡六级</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参营地点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>山东大学</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>理论计算研究院</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2025 QiTCS undergraduate summer camp recruitment brochure-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>青岛理论与计算科学研究院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>否</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线上</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厦门大学（套磁）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息学院</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特色化示范性软件学院）</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2025</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年优秀大学生夏令营活动报名指南</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厦门大学信息学院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/425</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线下</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实验室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>asc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实验室</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子科技大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础前沿研究院（有计算机科学技术）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子科技大学基础与前沿研究院2025年第十届“基础与前沿科学” 全国优秀大学生暑期夏令营预报名通知-基础与前沿研究院</t>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月中旬</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络空间安全学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学网络空间安全学院</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>六级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/450</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学软件工程学院2025年全国优秀大学生夏令营报名通知 | 中山大学软件工程学院</t>
+  </si>
+  <si>
+    <t>软件工程学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/2-7/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过六级优先考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学与技术学院优秀学生暑期学校活动通知-计算机科学与技术学院</t>
+  </si>
+  <si>
+    <t>同济大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学与技术学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/27-6/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方科技大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南科大统计与数据科学系2025年全国优秀大学生学术交流论坛暨夏令营预报名通知</t>
+  </si>
+  <si>
+    <t>7/4-7/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国科大杭州高等研究院智能科学与技术学院2025年大学生暑期夏令营（线下）报名通知-智能科学与技术学院</t>
+  </si>
+  <si>
+    <t>杭高院智能科学与技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月底</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过四级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国科学院大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国科学技术大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相约科大 筑梦科岛｜第十二届科学岛优秀大学生夏令营报名预通知</t>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,14 +621,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +933,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.9296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.06640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.9296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.06640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45813</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A3" s="12"/>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45823</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45842</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45814</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45818</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45821</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45823</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45845</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45823</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45828</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45846</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H9">
+    <sortCondition ref="D2:D9"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" display="http://www.qitcs.qd.sdu.edu.cn/info/1031/1732.htm" xr:uid="{EECF8614-2645-4272-8816-EB267C7C8C42}"/>
+    <hyperlink ref="C7" r:id="rId2" display="https://informatics.xmu.edu.cn/info/1050/45710.htm" xr:uid="{ABE5C2EA-CE3E-4181-A7FD-31BFCB60511D}"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://iffs.uestc.edu.cn/info/1049/6292.htm" xr:uid="{57C87B60-4FBD-4907-8132-ECD02CED5B78}"/>
+    <hyperlink ref="C3" r:id="rId4" display="https://scst.sysu.edu.cn/news/news02/1419108.htm" xr:uid="{121472C7-4D88-42B8-8D01-25DCC505D594}"/>
+    <hyperlink ref="C2" r:id="rId5" display="https://sse.sysu.edu.cn/article/908" xr:uid="{2CFCDCB9-B4DC-4196-BFA0-AA4299B6ED7F}"/>
+    <hyperlink ref="C4" r:id="rId6" display="https://cs.tongji.edu.cn/info/1022/3675.htm" xr:uid="{2831D794-9174-440C-A9C8-BB32284D2AEF}"/>
+    <hyperlink ref="C6" r:id="rId7" display="https://stat-ds.sustech.edu.cn/notice/383.html" xr:uid="{BD472EB9-AC08-4623-B3B7-888A6932D29E}"/>
+    <hyperlink ref="C8" r:id="rId8" display="http://hias.ucas.ac.cn/znkxyjs/info/1095/1821.htm" xr:uid="{89124F1D-0C7E-452D-9B94-D376A6290DD5}"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://mp.weixin.qq.com/s/PcdQ_BvB-IDGdAineK4IZw" xr:uid="{6286D273-45C5-497B-BB99-7DA9AF7E52C8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/夏令营、预推免时间/夏令营.xlsx
+++ b/夏令营、预推免时间/夏令营.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redmi\Desktop\保研\夏令营、预推免时间\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8C8933-09DF-4047-A5AC-A2B42DCE1BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D610481-19FD-44E5-97EB-2042D6A0BA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,10 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基础前沿研究院（有计算机科学技术）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电子科技大学基础与前沿研究院2025年第十届“基础与前沿科学” 全国优秀大学生暑期夏令营预报名通知-基础与前沿研究院</t>
   </si>
   <si>
@@ -531,6 +527,10 @@
   </si>
   <si>
     <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础前沿研究院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,7 +937,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -980,25 +980,25 @@
     </row>
     <row r="2" spans="1:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>45813</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2</v>
@@ -1007,10 +1007,10 @@
     <row r="3" spans="1:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A3" s="12"/>
       <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45823</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>2</v>
@@ -1030,25 +1030,25 @@
     </row>
     <row r="4" spans="1:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>45814</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>2</v>
@@ -1059,16 +1059,16 @@
         <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>45818</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>0</v>
@@ -1082,25 +1082,25 @@
     </row>
     <row r="6" spans="1:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="D6" s="2">
         <v>45821</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>2</v>
@@ -1134,25 +1134,25 @@
     </row>
     <row r="8" spans="1:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2">
         <v>45823</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>2</v>
@@ -1186,19 +1186,19 @@
     </row>
     <row r="10" spans="1:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>0</v>
